--- a/data/cellRAW/MTscorei5.xlsx
+++ b/data/cellRAW/MTscorei5.xlsx
@@ -476,10 +476,10 @@
         <v>1698.19</v>
       </c>
       <c r="C2" t="n">
-        <v>2671.11072056239</v>
+        <v>2208.628205128205</v>
       </c>
       <c r="D2" t="n">
-        <v>2832.502252252252</v>
+        <v>2554.493827160494</v>
       </c>
       <c r="E2" t="n">
         <v>2875.390625</v>
